--- a/data_month/zb/工业/按三大门类分工业增加值增长速度.xlsx
+++ b/data_month/zb/工业/按三大门类分工业增加值增长速度.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,539 +468,539 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7.5</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
+        <v>-15.7</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.5</v>
-      </c>
+        <v>-7.1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>-0.2</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.7</v>
+        <v>-1.8</v>
       </c>
       <c r="C3" t="n">
-        <v>2.9</v>
+        <v>-10.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5.4</v>
+        <v>-1.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>-5.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.4</v>
+        <v>-5.4</v>
       </c>
       <c r="D4" t="n">
-        <v>6.1</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>-3.9</v>
       </c>
       <c r="F4" t="n">
-        <v>4.9</v>
+        <v>0.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.2</v>
+      </c>
       <c r="C5" t="n">
-        <v>-15.7</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>-2.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.6</v>
+      </c>
       <c r="E5" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>-2.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.1</v>
+      </c>
       <c r="G5" t="n">
-        <v>-6.5</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.8</v>
+        <v>5.1</v>
       </c>
       <c r="C6" t="n">
-        <v>-10.2</v>
+        <v>-1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.6</v>
+        <v>5.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.2</v>
+        <v>-0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.7</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.4</v>
+        <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.9</v>
+        <v>-0.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3</v>
+        <v>-2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.8</v>
+        <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.4</v>
+        <v>0.3</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.1</v>
+        <v>7.6</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.4</v>
+        <v>1.7</v>
       </c>
       <c r="D9" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.1</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1</v>
+        <v>2.4</v>
       </c>
       <c r="D10" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.6</v>
+        <v>3.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="D11" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C12" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="D12" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.5</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.1</v>
-      </c>
+        <v>39.5</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
-      </c>
+        <v>19.8</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F14" t="n">
         <v>2.9</v>
       </c>
-      <c r="C14" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.2</v>
-      </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.8</v>
+        <v>10.3</v>
       </c>
       <c r="C15" t="n">
-        <v>9.800000000000001</v>
+        <v>22.2</v>
       </c>
       <c r="D15" t="n">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="E15" t="n">
-        <v>11.4</v>
+        <v>14.5</v>
       </c>
       <c r="F15" t="n">
-        <v>7.3</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
       <c r="C16" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>19.3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
       <c r="E16" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
+        <v>13.8</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3.2</v>
+      </c>
       <c r="G16" t="n">
-        <v>17.5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>27.3</v>
+        <v>17.1</v>
       </c>
       <c r="D17" t="n">
-        <v>13.9</v>
+        <v>11.6</v>
       </c>
       <c r="E17" t="n">
-        <v>15.9</v>
+        <v>13.4</v>
       </c>
       <c r="F17" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="G17" t="n">
-        <v>10.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.3</v>
+        <v>6.2</v>
       </c>
       <c r="C18" t="n">
-        <v>22.2</v>
+        <v>15.4</v>
       </c>
       <c r="D18" t="n">
-        <v>10.3</v>
+        <v>13.2</v>
       </c>
       <c r="E18" t="n">
-        <v>14.5</v>
+        <v>13.4</v>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="C19" t="n">
-        <v>19.3</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="E19" t="n">
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="C20" t="n">
-        <v>17.1</v>
+        <v>12.5</v>
       </c>
       <c r="D20" t="n">
-        <v>11.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="C21" t="n">
-        <v>15.4</v>
+        <v>11.3</v>
       </c>
       <c r="D21" t="n">
-        <v>13.2</v>
+        <v>11.1</v>
       </c>
       <c r="E21" t="n">
-        <v>13.4</v>
+        <v>11.9</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>10.4</v>
       </c>
       <c r="D22" t="n">
-        <v>6.3</v>
+        <v>11.1</v>
       </c>
       <c r="E22" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="C23" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>9.699999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="F23" t="n">
-        <v>3.2</v>
+        <v>7.3</v>
       </c>
       <c r="G23" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/工业/按三大门类分工业增加值增长速度.xlsx
+++ b/data_month/zb/工业/按三大门类分工业增加值增长速度.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,539 +468,927 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2020-10</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7.5</v>
+      </c>
       <c r="C2" t="n">
-        <v>-15.7</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
       <c r="E2" t="n">
-        <v>-7.1</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>1.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.5</v>
+      </c>
       <c r="G2" t="n">
-        <v>-6.5</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.8</v>
+        <v>7.7</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.2</v>
+        <v>2.9</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.6</v>
+        <v>5.4</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.2</v>
+        <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7.7</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.4</v>
+        <v>3.4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2</v>
+        <v>6.1</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.9</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5.2</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.6</v>
-      </c>
+        <v>-15.7</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.1</v>
-      </c>
+        <v>-7.1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>-1.8</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.1</v>
+        <v>-1.8</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.4</v>
+        <v>-10.2</v>
       </c>
       <c r="D6" t="n">
-        <v>5.5</v>
+        <v>-1.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9</v>
+        <v>-5.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.1</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1</v>
+        <v>-5.4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5</v>
+        <v>-3.9</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.6</v>
+        <v>0.3</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.3</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>-2.8</v>
       </c>
       <c r="D8" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3</v>
+        <v>-2.4</v>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="G8" t="n">
-        <v>-1</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="C9" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.7</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.2</v>
-      </c>
       <c r="G9" t="n">
-        <v>-0.6</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5</v>
+        <v>-2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="D11" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="E11" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="C12" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="D12" t="n">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.5</v>
+      </c>
       <c r="C13" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.1</v>
+      </c>
       <c r="E13" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
       <c r="G13" t="n">
-        <v>17.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.2</v>
+        <v>2.9</v>
       </c>
       <c r="C14" t="n">
-        <v>27.3</v>
+        <v>10.4</v>
       </c>
       <c r="D14" t="n">
-        <v>13.9</v>
+        <v>11.1</v>
       </c>
       <c r="E14" t="n">
-        <v>15.9</v>
+        <v>11.9</v>
       </c>
       <c r="F14" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
       <c r="G14" t="n">
-        <v>10.1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.3</v>
+        <v>3.8</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>10.3</v>
+        <v>7.2</v>
       </c>
       <c r="E15" t="n">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="F15" t="n">
-        <v>3.2</v>
+        <v>7.3</v>
       </c>
       <c r="G15" t="n">
-        <v>8.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11</v>
-      </c>
+        <v>39.5</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.2</v>
-      </c>
+        <v>19.8</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>7.4</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.699999999999999</v>
+        <v>15.2</v>
       </c>
       <c r="C17" t="n">
-        <v>17.1</v>
+        <v>27.3</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6</v>
+        <v>13.9</v>
       </c>
       <c r="E17" t="n">
-        <v>13.4</v>
+        <v>15.9</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="G17" t="n">
-        <v>6.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.2</v>
+        <v>10.3</v>
       </c>
       <c r="C18" t="n">
-        <v>15.4</v>
+        <v>22.2</v>
       </c>
       <c r="D18" t="n">
-        <v>13.2</v>
+        <v>10.3</v>
       </c>
       <c r="E18" t="n">
-        <v>13.4</v>
+        <v>14.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>19.3</v>
       </c>
       <c r="D19" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
-        <v>12.4</v>
+        <v>13.8</v>
       </c>
       <c r="F19" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>12.5</v>
+        <v>17.1</v>
       </c>
       <c r="D20" t="n">
-        <v>9.699999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.5</v>
+        <v>6.2</v>
       </c>
       <c r="C21" t="n">
-        <v>11.3</v>
+        <v>15.4</v>
       </c>
       <c r="D21" t="n">
-        <v>11.1</v>
+        <v>13.2</v>
       </c>
       <c r="E21" t="n">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="C22" t="n">
-        <v>10.4</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>11.1</v>
+        <v>6.3</v>
       </c>
       <c r="E22" t="n">
-        <v>11.9</v>
+        <v>12.4</v>
       </c>
       <c r="F22" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="C23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="D23" t="n">
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D33" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F34" t="n">
         <v>7.2</v>
       </c>
-      <c r="E23" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5.3</v>
+      <c r="G34" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>
